--- a/ERTC Script Final/Code Python Classique/TABLEAU GENERAL MODELE V2.xlsx
+++ b/ERTC Script Final/Code Python Classique/TABLEAU GENERAL MODELE V2.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FW15"/>
+  <dimension ref="A1:FW16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5327,7 +5327,7 @@
           <t>Conserver dans un endroit frais et sec, à l'abri de la lumière et de la chaleur</t>
         </is>
       </c>
-      <c r="AR15" s="3" t="n">
+      <c r="AR15" s="2" t="n">
         <v>45460</v>
       </c>
       <c r="AS15" t="inlineStr"/>
@@ -5529,10 +5529,10 @@
       <c r="FC15" t="n">
         <v>0</v>
       </c>
-      <c r="FD15" s="3" t="n">
+      <c r="FD15" s="2" t="n">
         <v>45460</v>
       </c>
-      <c r="FE15" s="3" t="n">
+      <c r="FE15" s="2" t="n">
         <v>45460</v>
       </c>
       <c r="FF15" t="inlineStr"/>
@@ -5570,6 +5570,319 @@
       <c r="FV15" t="inlineStr"/>
       <c r="FW15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Crème pour les mains rincé</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Adultes sauf femmes enceintes ou allaitantes</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Détaillants et Internet</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Produit rincé</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Caractéristique de la /des compositions(s) aromatique(s)/parfumante(s) utilisé(es)</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>Conserver dans un endroit frais et sec, à l'abri de la lumière et de la chaleur</t>
+        </is>
+      </c>
+      <c r="AR16" s="3" t="n">
+        <v>45547</v>
+      </c>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>La durabilité du produit cosmétique excède 30 mois, l'indication de la date de durabilité n'est pas obligatoire.</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>Compte tenu notamment de l'efficacité du système conservateur, la formule présente une stabilité élevée face à la contamination microbienne.</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Compte tenu du conditionnement, mais aussi de l’utilisation fréquente possible du produit, ce paramètre présente un risque élevé.</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>D'après la fréquence d'utilisation et le conditionnement, la durée d’utilisation du produit est relativement courte, aussi le risque lié à ce paramètre est-il faible.</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>(Compte tenu de la zone d'application du produit, celui-ci peut entrer en contact avec les yeux. Le risque lié à ce paramètre est très élevé.</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le produit est principalement destiné à l’usage des nourissons. Le risque lié à ce paramètre est très élevé. </t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>si 1 ≤ RT ≤ 8, PAO ≤ 18 mois</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>18 M</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>18 M</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les résultats des essais de vieillissement accéléré - stabilité de la formule seule ne sont pas disponibles en totalité au moment de la rédaction du DIP et devront être confirmés </t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>Risque microbiologique maîtrisé</t>
+        </is>
+      </c>
+      <c r="BN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
+      <c r="CW16" t="inlineStr"/>
+      <c r="CX16" t="inlineStr"/>
+      <c r="CY16" t="inlineStr"/>
+      <c r="CZ16" t="inlineStr"/>
+      <c r="DA16" t="inlineStr"/>
+      <c r="DB16" t="inlineStr"/>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr"/>
+      <c r="DE16" t="inlineStr"/>
+      <c r="DF16" t="inlineStr"/>
+      <c r="DG16" t="inlineStr"/>
+      <c r="DH16" t="inlineStr"/>
+      <c r="DI16" t="inlineStr"/>
+      <c r="DJ16" t="inlineStr"/>
+      <c r="DK16" t="inlineStr"/>
+      <c r="DL16" t="inlineStr"/>
+      <c r="DM16" t="inlineStr"/>
+      <c r="DN16" t="inlineStr"/>
+      <c r="DO16" t="inlineStr"/>
+      <c r="DP16" t="inlineStr"/>
+      <c r="DQ16" t="inlineStr"/>
+      <c r="DR16" t="inlineStr"/>
+      <c r="DS16" t="inlineStr"/>
+      <c r="DT16" t="inlineStr"/>
+      <c r="DU16" t="inlineStr"/>
+      <c r="DV16" t="inlineStr"/>
+      <c r="DW16" t="inlineStr"/>
+      <c r="DX16" t="inlineStr"/>
+      <c r="DY16" t="inlineStr"/>
+      <c r="DZ16" t="inlineStr"/>
+      <c r="EA16" t="inlineStr"/>
+      <c r="EB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC16" t="inlineStr">
+        <is>
+          <t>Présent dans le(s) parfum(s)</t>
+        </is>
+      </c>
+      <c r="ED16" t="inlineStr"/>
+      <c r="EE16" t="inlineStr"/>
+      <c r="EF16" t="inlineStr"/>
+      <c r="EG16" t="inlineStr"/>
+      <c r="EH16" t="inlineStr"/>
+      <c r="EI16" t="inlineStr"/>
+      <c r="EJ16" t="inlineStr"/>
+      <c r="EK16" t="inlineStr"/>
+      <c r="EL16" t="inlineStr"/>
+      <c r="EM16" t="inlineStr"/>
+      <c r="EN16" t="inlineStr"/>
+      <c r="EO16" t="inlineStr"/>
+      <c r="EP16" t="inlineStr"/>
+      <c r="EQ16" t="inlineStr"/>
+      <c r="ER16" t="inlineStr">
+        <is>
+          <t>Absence</t>
+        </is>
+      </c>
+      <c r="ES16" t="inlineStr"/>
+      <c r="ET16" t="inlineStr"/>
+      <c r="EU16" t="inlineStr"/>
+      <c r="EV16" t="inlineStr"/>
+      <c r="EW16" t="inlineStr"/>
+      <c r="EX16" t="inlineStr"/>
+      <c r="EY16" t="inlineStr"/>
+      <c r="EZ16" t="inlineStr">
+        <is>
+          <t>Présent dans le(s) parfum(s)</t>
+        </is>
+      </c>
+      <c r="FA16" t="inlineStr"/>
+      <c r="FB16" t="inlineStr">
+        <is>
+          <t>ne présente pas de risque particulier pour la santé humaine et répond aux exigences de l’article 3 du règlement (CE) N°1223/2009. Si le produit s'avère, suite à son utilisation par les consommateurs, à l'origine de réactions indésirables significatives déclarées auprès des services de cosmétovigilance, notamment de réactions d'irritations locales ou allergiques, le soussigné devra en être informé afin d'envisager l'éventuelle réévaluation de la sécurité pour la santé humaine du produit fini.</t>
+        </is>
+      </c>
+      <c r="FC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD16" s="3" t="n">
+        <v>45547</v>
+      </c>
+      <c r="FE16" s="3" t="n">
+        <v>45547</v>
+      </c>
+      <c r="FF16" t="inlineStr"/>
+      <c r="FG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH16" t="inlineStr"/>
+      <c r="FI16" t="inlineStr"/>
+      <c r="FJ16" t="inlineStr"/>
+      <c r="FK16" t="inlineStr"/>
+      <c r="FL16" t="inlineStr"/>
+      <c r="FM16" t="inlineStr"/>
+      <c r="FN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ16" t="inlineStr"/>
+      <c r="FR16" t="inlineStr">
+        <is>
+          <t>&gt; 0,001% (produit sans rinçage)</t>
+        </is>
+      </c>
+      <c r="FS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU16" t="inlineStr"/>
+      <c r="FV16" t="inlineStr"/>
+      <c r="FW16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
